--- a/doc/ue4_movieplayer.xlsx
+++ b/doc/ue4_movieplayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C15B21B-7DAC-4E85-A96D-4C288945B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB670D9-8DF3-4C33-BB8A-7947DFF322B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -966,7 +966,7 @@
   <dimension ref="B3:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD9"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B77C1C-14EA-43DF-85BC-680E704610F8}">
   <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -1332,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF52B3-1915-4651-8E19-5654D456CA5E}">
   <dimension ref="A2:S111"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAF68E2-16A4-453C-82E8-5F4B4C862673}">
   <dimension ref="B5:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF24F8E-E712-416D-B4A9-F335C1B6D9B2}">
   <dimension ref="B5:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE57E3-3DA7-4FFF-A5A5-A1FAF0C2C614}">
   <dimension ref="B4:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue4_movieplayer.xlsx
+++ b/doc/ue4_movieplayer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB670D9-8DF3-4C33-BB8A-7947DFF322B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -19,6 +18,7 @@
     <sheet name="播放时机" sheetId="9" r:id="rId4"/>
     <sheet name="UE4流式关卡" sheetId="2" r:id="rId5"/>
     <sheet name="备注" sheetId="10" r:id="rId6"/>
+    <sheet name="阻塞加载时默认的黑屏播放" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -603,11 +603,112 @@
     <t>！！！！所以我们无法进行夸帧的处理，只能在当前帧阻塞等待时触发这个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不管是UE4的WC还是UE5中的WP加载方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我们在使用BlockTillLevelStreamingCompleted，阻塞加载周围流关卡的时候，如果没有提前播放自己的MoviePlayer，系统就默认播放一个黑屏的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::BlockTillLevelStreamingCompleted(UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_UEngine_BlockTillLevelStreamingCompleted);</t>
+  </si>
+  <si>
+    <t>check(InWorld);</t>
+  </si>
+  <si>
+    <t>// Update streaming levels state using streaming volumes</t>
+  </si>
+  <si>
+    <t>InWorld-&gt;ProcessLevelStreamingVolumes();</t>
+  </si>
+  <si>
+    <t>if (InWorld-&gt;WorldComposition)</t>
+  </si>
+  <si>
+    <t>InWorld-&gt;WorldComposition-&gt;UpdateStreamingState();</t>
+  </si>
+  <si>
+    <t>// Probe if we have anything to do</t>
+  </si>
+  <si>
+    <t>InWorld-&gt;UpdateLevelStreaming();</t>
+  </si>
+  <si>
+    <t>bool bWorkToDo = (InWorld-&gt;IsVisibilityRequestPending() || IsAsyncLoading());</t>
+  </si>
+  <si>
+    <t>if (bWorkToDo)</t>
+  </si>
+  <si>
+    <t>if( GameViewport &amp;&amp; GEngine-&gt;BeginStreamingPauseDelegate &amp;&amp; GEngine-&gt;BeginStreamingPauseDelegate-&gt;IsBound() )</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;BeginStreamingPauseDelegate-&gt;Execute( GameViewport-&gt;Viewport );</t>
+  </si>
+  <si>
+    <t>// Flush level streaming requests, blocking till completion.</t>
+  </si>
+  <si>
+    <t>InWorld-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Full);</t>
+  </si>
+  <si>
+    <t>if( GEngine-&gt;EndStreamingPauseDelegate &amp;&amp; GEngine-&gt;EndStreamingPauseDelegate-&gt;IsBound() )</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;EndStreamingPauseDelegate-&gt;Execute( );</t>
+  </si>
+  <si>
+    <t>（也就是说如果主线程还有其他UI显示，会被系统默认的MoviePlayer黑屏遮住）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始默认的黑屏MoviePlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束默认的黑屏MoviePlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的是FStreamingPauseRenderingModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FStreamingPauseRenderingModule::StartupModule()</t>
+  </si>
+  <si>
+    <t>BeginDelegate.BindRaw(this, &amp;FStreamingPauseRenderingModule::BeginStreamingPause);</t>
+  </si>
+  <si>
+    <t>EndDelegate.BindRaw(this, &amp;FStreamingPauseRenderingModule::EndStreamingPause);</t>
+  </si>
+  <si>
+    <t>check(GEngine);</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;RegisterBeginStreamingPauseRenderingDelegate(&amp;BeginDelegate);</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;RegisterEndStreamingPauseRenderingDelegate(&amp;EndDelegate);</t>
+  </si>
+  <si>
+    <t>模块初始化注册事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97667B7-5F46-4E09-9330-7AA68750679C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,10 +1207,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B77C1C-14EA-43DF-85BC-680E704610F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -1329,10 +1430,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF52B3-1915-4651-8E19-5654D456CA5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -1783,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAF68E2-16A4-453C-82E8-5F4B4C862673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1877,10 +1978,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF24F8E-E712-416D-B4A9-F335C1B6D9B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -2016,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE57E3-3DA7-4FFF-A5A5-A1FAF0C2C614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2074,4 +2175,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue4_movieplayer.xlsx
+++ b/doc/ue4_movieplayer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82BA01-6F8D-4D87-8FD8-8E27C6248964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -704,11 +705,19 @@
     <t>！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GetMoviePlayer()-&gt;WaitForMovieToFinish(true);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！其内部处理完之后会出发BroadcastMoviePlaybackFinished();回调，所以可以做一些处理在里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,11 +1124,16 @@
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -1207,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1430,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:S111"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1884,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B5:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1978,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2178,11 +2192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue4_movieplayer.xlsx
+++ b/doc/ue4_movieplayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82BA01-6F8D-4D87-8FD8-8E27C6248964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F962BE-E814-4B90-B1E1-70138DF8F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -711,6 +711,10 @@
   </si>
   <si>
     <t>！！！！其内部处理完之后会出发BroadcastMoviePlaybackFinished();回调，所以可以做一些处理在里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！此处的对象就一直存储在内部了，不会给GC，除非再次设置，会将之前的GC掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -1222,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:P54"/>
+  <dimension ref="B2:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1348,62 +1352,65 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="Q40" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>124</v>
       </c>

--- a/doc/ue4_movieplayer.xlsx
+++ b/doc/ue4_movieplayer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F962BE-E814-4B90-B1E1-70138DF8F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5EF99-50AF-4B74-B4B8-CE9363E4C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="UE4流式关卡" sheetId="2" r:id="rId5"/>
     <sheet name="备注" sheetId="10" r:id="rId6"/>
     <sheet name="阻塞加载时默认的黑屏播放" sheetId="11" r:id="rId7"/>
+    <sheet name="用法" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="195">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -715,6 +716,18 @@
   </si>
   <si>
     <t>！！！此处的对象就一直存储在内部了，不会给GC，除非再次设置，会将之前的GC掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在切换场景的时候，如果用2DUI，可以自由控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要在等待DS返回OK之后在切换进场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是否就需要等对应的RPC回调，然后手动调用ForceCompletion来结束，并且可以在回调里面做一些特殊的处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -2539,4 +2552,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB726570-065A-49FD-BCDC-68DD532AA522}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>